--- a/MakeMyTrip/src/test/resources/testData/ExcelTestData.xlsx
+++ b/MakeMyTrip/src/test/resources/testData/ExcelTestData.xlsx
@@ -3,14 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA469EC3-D23C-4E89-BA7E-A58E7593182C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0BB36D3-D458-48C0-951A-4B9C0B88DA75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1440" yWindow="1440" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1440" yWindow="1440" windowWidth="14400" windowHeight="7360" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="locality" sheetId="1" r:id="rId1"/>
     <sheet name="TextFieldValue" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
+    <sheet name="TestCase7" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -22,10 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
-  <si>
-    <t>goa</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>Month</t>
   </si>
@@ -52,6 +50,21 @@
   </si>
   <si>
     <t>patru</t>
+  </si>
+  <si>
+    <t>Goa</t>
+  </si>
+  <si>
+    <t>Areas</t>
+  </si>
+  <si>
+    <t>ooty</t>
+  </si>
+  <si>
+    <t>shimla</t>
+  </si>
+  <si>
+    <t>uttrakhand</t>
   </si>
 </sst>
 </file>
@@ -375,8 +388,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -386,12 +399,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -417,12 +430,12 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" s="3">
         <v>20</v>
@@ -431,7 +444,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" s="3">
         <v>23</v>
@@ -440,19 +453,19 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -461,6 +474,44 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E98E15E-9C75-4AF0-9291-5D8919C80E90}">
+  <dimension ref="A1:A4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="11.453125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{201FD348-DB69-4D1F-9823-BEF4891F869A}">
   <dimension ref="A1:B3"/>
   <sheetViews>
@@ -475,15 +526,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2">
         <v>30</v>
@@ -491,7 +542,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3">
         <v>5</v>
